--- a/Computational/05_Logistic_Regression/odds_prob.xlsx
+++ b/Computational/05_Logistic_Regression/odds_prob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MSDS-RegressionAnalysis\Computational\05_Logistic_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSDS-RegressionAnalysis\Computational\05_Logistic_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A67729-1AEC-42A1-80C2-1E28201824DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6B81C-51F3-4B7A-AC68-25AA025CF4B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="4080" windowWidth="31050" windowHeight="21150" activeTab="1" xr2:uid="{6C50D1E5-E28C-4265-98D7-BF4C8047156E}"/>
+    <workbookView xWindow="9570" yWindow="4485" windowWidth="31755" windowHeight="16320" activeTab="1" xr2:uid="{6C50D1E5-E28C-4265-98D7-BF4C8047156E}"/>
   </bookViews>
   <sheets>
     <sheet name="Texting and Driving" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,8 +242,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -576,10 +576,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,10 +634,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6">
         <f>D3/D5</f>
         <v>0.75</v>
@@ -648,10 +648,10 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6">
         <f>D6/(1-D6)</f>
         <v>3</v>
@@ -678,7 +678,7 @@
   <dimension ref="B2:U46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="P28" sqref="P28:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,16 +688,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="20"/>
       <c r="I3">
         <v>0</v>
       </c>
@@ -706,10 +706,10 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="H4">
         <v>0</v>
       </c>
@@ -767,10 +767,10 @@
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
@@ -780,12 +780,12 @@
       <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="13" t="s">
         <v>8</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="S12" s="21"/>
+      <c r="S12" s="17"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <f>L10/(1-L10)</f>
         <v>8.7037037037037024</v>
       </c>
-      <c r="S13" s="21"/>
+      <c r="S13" s="17"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -885,17 +885,17 @@
       </c>
     </row>
     <row r="18" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="S18" s="21"/>
+      <c r="J18" s="20"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="20"/>
       <c r="I19">
         <v>0</v>
       </c>
@@ -941,18 +941,18 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="19"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="13" t="s">
         <v>8</v>
       </c>
@@ -992,7 +992,7 @@
     </row>
     <row r="28" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G28" s="4"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
@@ -1026,16 +1026,16 @@
       </c>
     </row>
     <row r="34" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="20"/>
       <c r="I35">
         <v>1</v>
       </c>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
-      <c r="H44" s="20"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
@@ -1294,6 +1294,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="K8:L8"/>
@@ -1302,11 +1307,6 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
